--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2302453.762904563</v>
+        <v>-2304451.435917409</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97.41307671137059</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>44.94101498269113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>127.004412707233</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>216.3273452660812</v>
       </c>
       <c r="X5" t="n">
-        <v>174.5986077078408</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>233.4543067672734</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>65.51651982872626</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>25.71396007345139</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>369.798308131636</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>99.66075074687578</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>230.2634979541059</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185879</v>
+        <v>207.6951870029948</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185879</v>
+        <v>103.572877713736</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>62.742365442944</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>47.27820527287669</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>161.8175117958952</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D25" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,7 +2530,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329113</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463107</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539627</v>
@@ -3004,7 +3004,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415164</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689375</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373686</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3709,7 +3709,7 @@
         <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
         <v>153.4156709287486</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689365</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4189,7 +4189,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468.3004633897571</v>
+        <v>907.090798542223</v>
       </c>
       <c r="C2" t="n">
-        <v>99.3379464493454</v>
+        <v>538.1282816018113</v>
       </c>
       <c r="D2" t="n">
-        <v>99.3379464493454</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E2" t="n">
-        <v>99.3379464493454</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>99.3379464493454</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>99.3379464493454</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1245.039635429691</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y2" t="n">
-        <v>854.9003034538789</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4492,34 +4492,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
         <v>53.94298182036445</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>1993.668658535239</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.546485980902</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.546485980902</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4753,22 +4753,22 @@
         <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>235.5914466506042</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>235.5914466506042</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>120.1212846776637</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>120.1212846776637</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,10 +4802,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4841,13 +4841,13 @@
         <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2108.906329475425</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>1735.440571214345</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y8" t="n">
-        <v>1345.301239238533</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,16 +5118,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
         <v>1171.725741678162</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954967</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5264,31 +5264,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>1841.189502980821</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2361.490124716568</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
         <v>2612.943493278838</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="17">
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,19 +5592,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.725741678162</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
         <v>1797.533454227377</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488384</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>326.6213191924212</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,19 +5829,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
         <v>1797.533454227377</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U22" t="n">
-        <v>800.6837097077201</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V22" t="n">
-        <v>545.9992215018333</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="23">
@@ -5984,43 +5984,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N24" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G25" t="n">
         <v>221.5295092103129</v>
@@ -6142,16 +6142,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,10 +6166,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R25" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S25" t="n">
         <v>1865.165908942116</v>
@@ -6178,19 +6178,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="26">
@@ -6224,13 +6224,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823776</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515096</v>
@@ -6294,7 +6294,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
@@ -6303,16 +6303,16 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
         <v>1171.725741678162</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F28" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028583</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,10 +6461,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,25 +6488,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N30" t="n">
-        <v>1646.27469227828</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6616,16 +6616,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,31 +6640,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6680,52 +6680,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6835,16 +6835,16 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,22 +6871,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6914,70 +6914,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7026,7 +7026,7 @@
         <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
         <v>1797.533454227377</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7096,7 +7096,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,34 +7190,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,28 +7239,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
         <v>1171.725741678162</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7500,7 +7500,7 @@
         <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
         <v>1797.533454227377</v>
@@ -7552,7 +7552,7 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7637,40 +7637,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
@@ -7737,7 +7737,7 @@
         <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
         <v>1797.533454227377</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8295,10 +8295,10 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>349.7653003338568</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>165.9802687929764</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="O18" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9489,10 +9489,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="O21" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>274.3657496970648</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720727</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>274.3657496970643</v>
+        <v>274.3657496970648</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10200,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>188.88569463024</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929765</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10674,10 +10674,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>349.7653003338568</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>349.7653003338568</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11148,10 +11148,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>349.7653003338569</v>
       </c>
       <c r="O42" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11385,10 +11385,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>349.7653003338568</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>257.2699649093124</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>285.3355548459865</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>278.981757781666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>44.28663650577506</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871784</v>
+        <v>18.01446838604235</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>122.1367776753012</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>189.395277880884</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>171.3064480792181</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>7.280234771565489</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>124.4198406026821</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371239</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99193.6337742231</v>
+        <v>99193.63377422314</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,37 +26424,37 @@
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007525</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007485</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="I4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="L4" t="n">
         <v>30335.51889732796</v>
       </c>
-      <c r="J4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="K4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>30335.51889732797</v>
       </c>
-      <c r="M4" t="n">
-        <v>30335.51889732796</v>
-      </c>
       <c r="N4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732802</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="I5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002538</v>
@@ -26497,19 +26497,19 @@
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-772020.591052177</v>
+        <v>-772234.0030420556</v>
       </c>
       <c r="C6" t="n">
         <v>-230776.1267793303</v>
@@ -26528,40 +26528,40 @@
         <v>-230776.1267793303</v>
       </c>
       <c r="E6" t="n">
-        <v>-625064.0940816202</v>
+        <v>-625161.5532075923</v>
       </c>
       <c r="F6" t="n">
-        <v>-99904.05760472412</v>
+        <v>-100001.5167306963</v>
       </c>
       <c r="G6" t="n">
-        <v>-99904.05760472408</v>
+        <v>-100001.5167306963</v>
       </c>
       <c r="H6" t="n">
-        <v>-99904.0576047241</v>
+        <v>-100001.5167306963</v>
       </c>
       <c r="I6" t="n">
         <v>-182556.1368210659</v>
       </c>
       <c r="J6" t="n">
-        <v>-304473.8439099462</v>
+        <v>-304473.8439099463</v>
       </c>
       <c r="K6" t="n">
-        <v>-128050.6247173533</v>
+        <v>-128050.6247173534</v>
       </c>
       <c r="L6" t="n">
         <v>-128050.6247173534</v>
       </c>
       <c r="M6" t="n">
-        <v>-262851.6399511904</v>
+        <v>-262851.6399511906</v>
       </c>
       <c r="N6" t="n">
-        <v>-182556.1368210659</v>
+        <v>-182556.1368210658</v>
       </c>
       <c r="O6" t="n">
-        <v>-128050.6247173533</v>
+        <v>-128050.6247173535</v>
       </c>
       <c r="P6" t="n">
-        <v>-128050.6247173533</v>
+        <v>-128050.6247173534</v>
       </c>
     </row>
   </sheetData>
@@ -26698,31 +26698,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="L2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="K2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>121.540490895725</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>85.14112624278593</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>207.851006818053</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>132.9136234513319</v>
       </c>
       <c r="X5" t="n">
-        <v>195.1324929706282</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>52.82756747470432</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0681335233685</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>323.5270086439616</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>16.43963052441762</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>46.77321189969339</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>21.87414536972213</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35252,7 +35252,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,13 +35495,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>632.1290025749649</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35510,7 +35510,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>253.9933015780506</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,13 +35969,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>682.9598737318699</v>
       </c>
       <c r="O18" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -35984,7 +35984,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
@@ -36206,13 +36206,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>682.9598737318699</v>
       </c>
       <c r="O21" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36221,7 +36221,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>481.4591646285895</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P25" t="n">
         <v>246.5154907414414</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415069</v>
+        <v>271.3780219415072</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>481.459164628589</v>
+        <v>481.4591646285895</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,7 +36765,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414414</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>471.2493968713482</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,7 +37002,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,10 +37154,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>632.1290025749649</v>
@@ -37169,7 +37169,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,13 +37391,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>682.9598737318697</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37628,13 +37628,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>632.1290025749649</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37643,7 +37643,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,13 +37865,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>682.9598737318697</v>
       </c>
       <c r="O42" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,13 +38102,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>682.9598737318697</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38117,7 +38117,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
